--- a/results/Hypermodel_Results/tuned_cnn_f1_score.xlsx
+++ b/results/Hypermodel_Results/tuned_cnn_f1_score.xlsx
@@ -399,7 +399,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.8232558139534883</v>
+        <v>0.832535885167464</v>
       </c>
     </row>
   </sheetData>
